--- a/user-data/grants-pct-totalrevenue/grants-pct-totalrevenue.xlsx
+++ b/user-data/grants-pct-totalrevenue/grants-pct-totalrevenue.xlsx
@@ -64,7 +64,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AM</t>
@@ -118,7 +118,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -143,12 +143,6 @@
   </si>
   <si>
     <t>Burundi</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>CÃ´te d'Ivoire</t>
   </si>
   <si>
     <t>KH</t>
@@ -209,6 +203,12 @@
   </si>
   <si>
     <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>DJ</t>
@@ -622,7 +622,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -634,7 +634,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SN</t>
@@ -907,7 +907,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -7640,9 +7640,7 @@
       <c r="C384" t="n">
         <v>2004</v>
       </c>
-      <c r="D384" t="n">
-        <v>5.034825871</v>
-      </c>
+      <c r="D384"/>
       <c r="E384" t="s">
         <v>7</v>
       </c>
@@ -7657,9 +7655,7 @@
       <c r="C385" t="n">
         <v>2005</v>
       </c>
-      <c r="D385" t="n">
-        <v>6.040868455</v>
-      </c>
+      <c r="D385"/>
       <c r="E385" t="s">
         <v>7</v>
       </c>
@@ -7675,7 +7671,7 @@
         <v>2006</v>
       </c>
       <c r="D386" t="n">
-        <v>3.212735166</v>
+        <v>18.15362595</v>
       </c>
       <c r="E386" t="s">
         <v>7</v>
@@ -7692,7 +7688,7 @@
         <v>2007</v>
       </c>
       <c r="D387" t="n">
-        <v>2.864471997</v>
+        <v>15.50010144</v>
       </c>
       <c r="E387" t="s">
         <v>7</v>
@@ -7709,7 +7705,7 @@
         <v>2008</v>
       </c>
       <c r="D388" t="n">
-        <v>8.324830721</v>
+        <v>20.45719278</v>
       </c>
       <c r="E388" t="s">
         <v>7</v>
@@ -7726,7 +7722,7 @@
         <v>2009</v>
       </c>
       <c r="D389" t="n">
-        <v>2.975292343</v>
+        <v>26.86939915</v>
       </c>
       <c r="E389" t="s">
         <v>7</v>
@@ -7743,7 +7739,7 @@
         <v>2010</v>
       </c>
       <c r="D390" t="n">
-        <v>2.700527587</v>
+        <v>28.97918484</v>
       </c>
       <c r="E390" t="s">
         <v>7</v>
@@ -7760,7 +7756,7 @@
         <v>2011</v>
       </c>
       <c r="D391" t="n">
-        <v>1.906251811</v>
+        <v>20.68030564</v>
       </c>
       <c r="E391" t="s">
         <v>7</v>
@@ -7777,7 +7773,7 @@
         <v>2012</v>
       </c>
       <c r="D392" t="n">
-        <v>3.097581445</v>
+        <v>16.39378454</v>
       </c>
       <c r="E392" t="s">
         <v>7</v>
@@ -7794,10 +7790,10 @@
         <v>2013</v>
       </c>
       <c r="D393" t="n">
-        <v>6.629379832</v>
+        <v>18.52336449</v>
       </c>
       <c r="E393" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="394">
@@ -7811,7 +7807,7 @@
         <v>2014</v>
       </c>
       <c r="D394" t="n">
-        <v>9.230582377</v>
+        <v>16.58795261</v>
       </c>
       <c r="E394" t="s">
         <v>8</v>
@@ -7827,9 +7823,7 @@
       <c r="C395" t="n">
         <v>2015</v>
       </c>
-      <c r="D395" t="n">
-        <v>9.768891197</v>
-      </c>
+      <c r="D395"/>
       <c r="E395" t="s">
         <v>8</v>
       </c>
@@ -7844,9 +7838,7 @@
       <c r="C396" t="n">
         <v>2016</v>
       </c>
-      <c r="D396" t="n">
-        <v>9.836837151</v>
-      </c>
+      <c r="D396"/>
       <c r="E396" t="s">
         <v>8</v>
       </c>
@@ -7861,9 +7853,7 @@
       <c r="C397" t="n">
         <v>2017</v>
       </c>
-      <c r="D397" t="n">
-        <v>9.128591167</v>
-      </c>
+      <c r="D397"/>
       <c r="E397" t="s">
         <v>8</v>
       </c>
@@ -7878,9 +7868,7 @@
       <c r="C398" t="n">
         <v>2018</v>
       </c>
-      <c r="D398" t="n">
-        <v>8.742288429</v>
-      </c>
+      <c r="D398"/>
       <c r="E398" t="s">
         <v>8</v>
       </c>
@@ -7955,7 +7943,9 @@
       <c r="C403" t="n">
         <v>2002</v>
       </c>
-      <c r="D403"/>
+      <c r="D403" t="n">
+        <v>1.777777778</v>
+      </c>
       <c r="E403" t="s">
         <v>7</v>
       </c>
@@ -7970,7 +7960,9 @@
       <c r="C404" t="n">
         <v>2003</v>
       </c>
-      <c r="D404"/>
+      <c r="D404" t="n">
+        <v>3.85126162</v>
+      </c>
       <c r="E404" t="s">
         <v>7</v>
       </c>
@@ -7985,7 +7977,9 @@
       <c r="C405" t="n">
         <v>2004</v>
       </c>
-      <c r="D405"/>
+      <c r="D405" t="n">
+        <v>1.477449456</v>
+      </c>
       <c r="E405" t="s">
         <v>7</v>
       </c>
@@ -8000,7 +7994,9 @@
       <c r="C406" t="n">
         <v>2005</v>
       </c>
-      <c r="D406"/>
+      <c r="D406" t="n">
+        <v>2.955974843</v>
+      </c>
       <c r="E406" t="s">
         <v>7</v>
       </c>
@@ -8016,7 +8012,7 @@
         <v>2006</v>
       </c>
       <c r="D407" t="n">
-        <v>18.15362595</v>
+        <v>59.5706619</v>
       </c>
       <c r="E407" t="s">
         <v>7</v>
@@ -8033,7 +8029,7 @@
         <v>2007</v>
       </c>
       <c r="D408" t="n">
-        <v>15.50010144</v>
+        <v>5.944584383</v>
       </c>
       <c r="E408" t="s">
         <v>7</v>
@@ -8050,7 +8046,7 @@
         <v>2008</v>
       </c>
       <c r="D409" t="n">
-        <v>20.45719278</v>
+        <v>4.155374887</v>
       </c>
       <c r="E409" t="s">
         <v>7</v>
@@ -8067,7 +8063,7 @@
         <v>2009</v>
       </c>
       <c r="D410" t="n">
-        <v>26.86939915</v>
+        <v>4.519480519</v>
       </c>
       <c r="E410" t="s">
         <v>7</v>
@@ -8084,7 +8080,7 @@
         <v>2010</v>
       </c>
       <c r="D411" t="n">
-        <v>28.97918484</v>
+        <v>3.659793814</v>
       </c>
       <c r="E411" t="s">
         <v>7</v>
@@ -8101,7 +8097,7 @@
         <v>2011</v>
       </c>
       <c r="D412" t="n">
-        <v>20.68030564</v>
+        <v>2.666666667</v>
       </c>
       <c r="E412" t="s">
         <v>7</v>
@@ -8118,7 +8114,7 @@
         <v>2012</v>
       </c>
       <c r="D413" t="n">
-        <v>16.39378454</v>
+        <v>2.308326463</v>
       </c>
       <c r="E413" t="s">
         <v>7</v>
@@ -8135,10 +8131,10 @@
         <v>2013</v>
       </c>
       <c r="D414" t="n">
-        <v>18.52336449</v>
+        <v>1.753717118</v>
       </c>
       <c r="E414" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="415">
@@ -8152,7 +8148,7 @@
         <v>2014</v>
       </c>
       <c r="D415" t="n">
-        <v>16.58795261</v>
+        <v>2.909594735</v>
       </c>
       <c r="E415" t="s">
         <v>8</v>
@@ -8168,7 +8164,9 @@
       <c r="C416" t="n">
         <v>2015</v>
       </c>
-      <c r="D416"/>
+      <c r="D416" t="n">
+        <v>2.754098361</v>
+      </c>
       <c r="E416" t="s">
         <v>8</v>
       </c>
@@ -8183,7 +8181,9 @@
       <c r="C417" t="n">
         <v>2016</v>
       </c>
-      <c r="D417"/>
+      <c r="D417" t="n">
+        <v>1.658841941</v>
+      </c>
       <c r="E417" t="s">
         <v>8</v>
       </c>
@@ -8198,7 +8198,9 @@
       <c r="C418" t="n">
         <v>2017</v>
       </c>
-      <c r="D418"/>
+      <c r="D418" t="n">
+        <v>1.44075272</v>
+      </c>
       <c r="E418" t="s">
         <v>8</v>
       </c>
@@ -8213,7 +8215,9 @@
       <c r="C419" t="n">
         <v>2018</v>
       </c>
-      <c r="D419"/>
+      <c r="D419" t="n">
+        <v>1.211120286</v>
+      </c>
       <c r="E419" t="s">
         <v>8</v>
       </c>
@@ -8228,7 +8232,9 @@
       <c r="C420" t="n">
         <v>2019</v>
       </c>
-      <c r="D420"/>
+      <c r="D420" t="n">
+        <v>1.021189686</v>
+      </c>
       <c r="E420" t="s">
         <v>8</v>
       </c>
@@ -8273,7 +8279,9 @@
       <c r="C423" t="n">
         <v>2001</v>
       </c>
-      <c r="D423"/>
+      <c r="D423" t="n">
+        <v>21.69312169</v>
+      </c>
       <c r="E423" t="s">
         <v>7</v>
       </c>
@@ -8289,7 +8297,7 @@
         <v>2002</v>
       </c>
       <c r="D424" t="n">
-        <v>1.777777778</v>
+        <v>27.39130435</v>
       </c>
       <c r="E424" t="s">
         <v>7</v>
@@ -8306,7 +8314,7 @@
         <v>2003</v>
       </c>
       <c r="D425" t="n">
-        <v>3.85126162</v>
+        <v>20.0913242</v>
       </c>
       <c r="E425" t="s">
         <v>7</v>
@@ -8323,7 +8331,7 @@
         <v>2004</v>
       </c>
       <c r="D426" t="n">
-        <v>1.477449456</v>
+        <v>31.78571429</v>
       </c>
       <c r="E426" t="s">
         <v>7</v>
@@ -8340,7 +8348,7 @@
         <v>2005</v>
       </c>
       <c r="D427" t="n">
-        <v>2.955974843</v>
+        <v>21.12476194</v>
       </c>
       <c r="E427" t="s">
         <v>7</v>
@@ -8357,7 +8365,7 @@
         <v>2006</v>
       </c>
       <c r="D428" t="n">
-        <v>59.5706619</v>
+        <v>18.64772581</v>
       </c>
       <c r="E428" t="s">
         <v>7</v>
@@ -8374,7 +8382,7 @@
         <v>2007</v>
       </c>
       <c r="D429" t="n">
-        <v>5.944584383</v>
+        <v>15.86063591</v>
       </c>
       <c r="E429" t="s">
         <v>7</v>
@@ -8391,7 +8399,7 @@
         <v>2008</v>
       </c>
       <c r="D430" t="n">
-        <v>4.155374887</v>
+        <v>16.40850282</v>
       </c>
       <c r="E430" t="s">
         <v>7</v>
@@ -8408,7 +8416,7 @@
         <v>2009</v>
       </c>
       <c r="D431" t="n">
-        <v>4.519480519</v>
+        <v>18.74657909</v>
       </c>
       <c r="E431" t="s">
         <v>7</v>
@@ -8425,7 +8433,7 @@
         <v>2010</v>
       </c>
       <c r="D432" t="n">
-        <v>3.659793814</v>
+        <v>22.3853211</v>
       </c>
       <c r="E432" t="s">
         <v>7</v>
@@ -8442,7 +8450,7 @@
         <v>2011</v>
       </c>
       <c r="D433" t="n">
-        <v>2.666666667</v>
+        <v>11.45162992</v>
       </c>
       <c r="E433" t="s">
         <v>7</v>
@@ -8459,7 +8467,7 @@
         <v>2012</v>
       </c>
       <c r="D434" t="n">
-        <v>2.308326463</v>
+        <v>7.897289586</v>
       </c>
       <c r="E434" t="s">
         <v>7</v>
@@ -8476,7 +8484,7 @@
         <v>2013</v>
       </c>
       <c r="D435" t="n">
-        <v>1.753717118</v>
+        <v>9.951957916</v>
       </c>
       <c r="E435" t="s">
         <v>7</v>
@@ -8493,7 +8501,7 @@
         <v>2014</v>
       </c>
       <c r="D436" t="n">
-        <v>2.909594735</v>
+        <v>11.53610193</v>
       </c>
       <c r="E436" t="s">
         <v>8</v>
@@ -8510,7 +8518,7 @@
         <v>2015</v>
       </c>
       <c r="D437" t="n">
-        <v>2.754098361</v>
+        <v>7.257731011</v>
       </c>
       <c r="E437" t="s">
         <v>8</v>
@@ -8527,7 +8535,7 @@
         <v>2016</v>
       </c>
       <c r="D438" t="n">
-        <v>1.658841941</v>
+        <v>6.250529886</v>
       </c>
       <c r="E438" t="s">
         <v>8</v>
@@ -8544,7 +8552,7 @@
         <v>2017</v>
       </c>
       <c r="D439" t="n">
-        <v>1.44075272</v>
+        <v>5.064708077</v>
       </c>
       <c r="E439" t="s">
         <v>8</v>
@@ -8560,9 +8568,7 @@
       <c r="C440" t="n">
         <v>2018</v>
       </c>
-      <c r="D440" t="n">
-        <v>1.211120286</v>
-      </c>
+      <c r="D440"/>
       <c r="E440" t="s">
         <v>8</v>
       </c>
@@ -8577,9 +8583,7 @@
       <c r="C441" t="n">
         <v>2019</v>
       </c>
-      <c r="D441" t="n">
-        <v>1.021189686</v>
-      </c>
+      <c r="D441"/>
       <c r="E441" t="s">
         <v>8</v>
       </c>
@@ -8625,7 +8629,7 @@
         <v>2001</v>
       </c>
       <c r="D444" t="n">
-        <v>21.69312169</v>
+        <v>27.77142857</v>
       </c>
       <c r="E444" t="s">
         <v>7</v>
@@ -8642,7 +8646,7 @@
         <v>2002</v>
       </c>
       <c r="D445" t="n">
-        <v>27.39130435</v>
+        <v>25.96789424</v>
       </c>
       <c r="E445" t="s">
         <v>7</v>
@@ -8659,7 +8663,7 @@
         <v>2003</v>
       </c>
       <c r="D446" t="n">
-        <v>20.0913242</v>
+        <v>15.830721</v>
       </c>
       <c r="E446" t="s">
         <v>7</v>
@@ -8676,7 +8680,7 @@
         <v>2004</v>
       </c>
       <c r="D447" t="n">
-        <v>31.78571429</v>
+        <v>28.91719745</v>
       </c>
       <c r="E447" t="s">
         <v>7</v>
@@ -8693,7 +8697,7 @@
         <v>2005</v>
       </c>
       <c r="D448" t="n">
-        <v>21.12476194</v>
+        <v>33.52272727</v>
       </c>
       <c r="E448" t="s">
         <v>7</v>
@@ -8710,7 +8714,7 @@
         <v>2006</v>
       </c>
       <c r="D449" t="n">
-        <v>18.64772581</v>
+        <v>58.36642087</v>
       </c>
       <c r="E449" t="s">
         <v>7</v>
@@ -8727,7 +8731,7 @@
         <v>2007</v>
       </c>
       <c r="D450" t="n">
-        <v>15.86063591</v>
+        <v>28.54700855</v>
       </c>
       <c r="E450" t="s">
         <v>7</v>
@@ -8744,7 +8748,7 @@
         <v>2008</v>
       </c>
       <c r="D451" t="n">
-        <v>16.40850282</v>
+        <v>31.40311804</v>
       </c>
       <c r="E451" t="s">
         <v>7</v>
@@ -8761,7 +8765,7 @@
         <v>2009</v>
       </c>
       <c r="D452" t="n">
-        <v>18.74657909</v>
+        <v>32.86759814</v>
       </c>
       <c r="E452" t="s">
         <v>7</v>
@@ -8778,7 +8782,7 @@
         <v>2010</v>
       </c>
       <c r="D453" t="n">
-        <v>22.3853211</v>
+        <v>32.30586841</v>
       </c>
       <c r="E453" t="s">
         <v>7</v>
@@ -8795,7 +8799,7 @@
         <v>2011</v>
       </c>
       <c r="D454" t="n">
-        <v>11.45162992</v>
+        <v>19.04417089</v>
       </c>
       <c r="E454" t="s">
         <v>7</v>
@@ -8812,7 +8816,7 @@
         <v>2012</v>
       </c>
       <c r="D455" t="n">
-        <v>7.897289586</v>
+        <v>29.78488693</v>
       </c>
       <c r="E455" t="s">
         <v>7</v>
@@ -8829,7 +8833,7 @@
         <v>2013</v>
       </c>
       <c r="D456" t="n">
-        <v>9.951957916</v>
+        <v>32.44514107</v>
       </c>
       <c r="E456" t="s">
         <v>7</v>
@@ -8846,7 +8850,7 @@
         <v>2014</v>
       </c>
       <c r="D457" t="n">
-        <v>11.53610193</v>
+        <v>31.07569721</v>
       </c>
       <c r="E457" t="s">
         <v>8</v>
@@ -8863,7 +8867,7 @@
         <v>2015</v>
       </c>
       <c r="D458" t="n">
-        <v>7.257731011</v>
+        <v>28.86505809</v>
       </c>
       <c r="E458" t="s">
         <v>8</v>
@@ -8879,9 +8883,7 @@
       <c r="C459" t="n">
         <v>2016</v>
       </c>
-      <c r="D459" t="n">
-        <v>6.250529886</v>
-      </c>
+      <c r="D459"/>
       <c r="E459" t="s">
         <v>8</v>
       </c>
@@ -8896,9 +8898,7 @@
       <c r="C460" t="n">
         <v>2017</v>
       </c>
-      <c r="D460" t="n">
-        <v>5.064708077</v>
-      </c>
+      <c r="D460"/>
       <c r="E460" t="s">
         <v>8</v>
       </c>
@@ -8958,7 +8958,9 @@
       <c r="C464" t="n">
         <v>2000</v>
       </c>
-      <c r="D464"/>
+      <c r="D464" t="n">
+        <v>40.76809453</v>
+      </c>
       <c r="E464" t="s">
         <v>7</v>
       </c>
@@ -8974,7 +8976,7 @@
         <v>2001</v>
       </c>
       <c r="D465" t="n">
-        <v>27.77142857</v>
+        <v>41.02893891</v>
       </c>
       <c r="E465" t="s">
         <v>7</v>
@@ -8991,7 +8993,7 @@
         <v>2002</v>
       </c>
       <c r="D466" t="n">
-        <v>25.96789424</v>
+        <v>43.03091738</v>
       </c>
       <c r="E466" t="s">
         <v>7</v>
@@ -9008,7 +9010,7 @@
         <v>2003</v>
       </c>
       <c r="D467" t="n">
-        <v>15.830721</v>
+        <v>49.61585119</v>
       </c>
       <c r="E467" t="s">
         <v>7</v>
@@ -9025,7 +9027,7 @@
         <v>2004</v>
       </c>
       <c r="D468" t="n">
-        <v>28.91719745</v>
+        <v>25.95362752</v>
       </c>
       <c r="E468" t="s">
         <v>7</v>
@@ -9042,7 +9044,7 @@
         <v>2005</v>
       </c>
       <c r="D469" t="n">
-        <v>33.52272727</v>
+        <v>26.45341457</v>
       </c>
       <c r="E469" t="s">
         <v>7</v>
@@ -9059,7 +9061,7 @@
         <v>2006</v>
       </c>
       <c r="D470" t="n">
-        <v>58.36642087</v>
+        <v>10.08701257</v>
       </c>
       <c r="E470" t="s">
         <v>7</v>
@@ -9076,7 +9078,7 @@
         <v>2007</v>
       </c>
       <c r="D471" t="n">
-        <v>28.54700855</v>
+        <v>6.066560236</v>
       </c>
       <c r="E471" t="s">
         <v>7</v>
@@ -9093,7 +9095,7 @@
         <v>2008</v>
       </c>
       <c r="D472" t="n">
-        <v>31.40311804</v>
+        <v>5.410071942</v>
       </c>
       <c r="E472" t="s">
         <v>7</v>
@@ -9110,7 +9112,7 @@
         <v>2009</v>
       </c>
       <c r="D473" t="n">
-        <v>32.86759814</v>
+        <v>17.55725191</v>
       </c>
       <c r="E473" t="s">
         <v>7</v>
@@ -9127,7 +9129,7 @@
         <v>2010</v>
       </c>
       <c r="D474" t="n">
-        <v>32.30586841</v>
+        <v>6.454630496</v>
       </c>
       <c r="E474" t="s">
         <v>7</v>
@@ -9144,7 +9146,7 @@
         <v>2011</v>
       </c>
       <c r="D475" t="n">
-        <v>19.04417089</v>
+        <v>6.399437412</v>
       </c>
       <c r="E475" t="s">
         <v>7</v>
@@ -9161,7 +9163,7 @@
         <v>2012</v>
       </c>
       <c r="D476" t="n">
-        <v>29.78488693</v>
+        <v>10.83009079</v>
       </c>
       <c r="E476" t="s">
         <v>7</v>
@@ -9178,7 +9180,7 @@
         <v>2013</v>
       </c>
       <c r="D477" t="n">
-        <v>32.44514107</v>
+        <v>8.732612056</v>
       </c>
       <c r="E477" t="s">
         <v>7</v>
@@ -9195,10 +9197,10 @@
         <v>2014</v>
       </c>
       <c r="D478" t="n">
-        <v>31.07569721</v>
+        <v>8.901830283</v>
       </c>
       <c r="E478" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="479">
@@ -9212,7 +9214,7 @@
         <v>2015</v>
       </c>
       <c r="D479" t="n">
-        <v>28.86505809</v>
+        <v>16.49305556</v>
       </c>
       <c r="E479" t="s">
         <v>8</v>
@@ -9228,7 +9230,9 @@
       <c r="C480" t="n">
         <v>2016</v>
       </c>
-      <c r="D480"/>
+      <c r="D480" t="n">
+        <v>10.85043988</v>
+      </c>
       <c r="E480" t="s">
         <v>8</v>
       </c>
@@ -9243,7 +9247,9 @@
       <c r="C481" t="n">
         <v>2017</v>
       </c>
-      <c r="D481"/>
+      <c r="D481" t="n">
+        <v>10.12658228</v>
+      </c>
       <c r="E481" t="s">
         <v>8</v>
       </c>
@@ -9258,7 +9264,9 @@
       <c r="C482" t="n">
         <v>2018</v>
       </c>
-      <c r="D482"/>
+      <c r="D482" t="n">
+        <v>7.647843486</v>
+      </c>
       <c r="E482" t="s">
         <v>8</v>
       </c>
@@ -9273,7 +9281,9 @@
       <c r="C483" t="n">
         <v>2019</v>
       </c>
-      <c r="D483"/>
+      <c r="D483" t="n">
+        <v>7.307542009</v>
+      </c>
       <c r="E483" t="s">
         <v>8</v>
       </c>
@@ -9304,7 +9314,7 @@
         <v>2000</v>
       </c>
       <c r="D485" t="n">
-        <v>40.76809453</v>
+        <v>0.917431193</v>
       </c>
       <c r="E485" t="s">
         <v>7</v>
@@ -9321,7 +9331,7 @@
         <v>2001</v>
       </c>
       <c r="D486" t="n">
-        <v>41.02893891</v>
+        <v>1.376146789</v>
       </c>
       <c r="E486" t="s">
         <v>7</v>
@@ -9338,7 +9348,7 @@
         <v>2002</v>
       </c>
       <c r="D487" t="n">
-        <v>43.03091738</v>
+        <v>0.943396226</v>
       </c>
       <c r="E487" t="s">
         <v>7</v>
@@ -9355,7 +9365,7 @@
         <v>2003</v>
       </c>
       <c r="D488" t="n">
-        <v>49.61585119</v>
+        <v>0.961538462</v>
       </c>
       <c r="E488" t="s">
         <v>7</v>
@@ -9372,7 +9382,7 @@
         <v>2004</v>
       </c>
       <c r="D489" t="n">
-        <v>25.95362752</v>
+        <v>0.454545455</v>
       </c>
       <c r="E489" t="s">
         <v>7</v>
@@ -9389,7 +9399,7 @@
         <v>2005</v>
       </c>
       <c r="D490" t="n">
-        <v>26.45341457</v>
+        <v>0.840336134</v>
       </c>
       <c r="E490" t="s">
         <v>7</v>
@@ -9406,7 +9416,7 @@
         <v>2006</v>
       </c>
       <c r="D491" t="n">
-        <v>10.08701257</v>
+        <v>0.775193798</v>
       </c>
       <c r="E491" t="s">
         <v>7</v>
@@ -9423,7 +9433,7 @@
         <v>2007</v>
       </c>
       <c r="D492" t="n">
-        <v>6.066560236</v>
+        <v>0.740740741</v>
       </c>
       <c r="E492" t="s">
         <v>7</v>
@@ -9440,7 +9450,7 @@
         <v>2008</v>
       </c>
       <c r="D493" t="n">
-        <v>5.410071942</v>
+        <v>0.411522634</v>
       </c>
       <c r="E493" t="s">
         <v>7</v>
@@ -9457,7 +9467,7 @@
         <v>2009</v>
       </c>
       <c r="D494" t="n">
-        <v>17.55725191</v>
+        <v>0.523560209</v>
       </c>
       <c r="E494" t="s">
         <v>7</v>
@@ -9474,7 +9484,7 @@
         <v>2010</v>
       </c>
       <c r="D495" t="n">
-        <v>6.454630496</v>
+        <v>0.465116279</v>
       </c>
       <c r="E495" t="s">
         <v>7</v>
@@ -9491,7 +9501,7 @@
         <v>2011</v>
       </c>
       <c r="D496" t="n">
-        <v>6.399437412</v>
+        <v>0.438596491</v>
       </c>
       <c r="E496" t="s">
         <v>7</v>
@@ -9508,7 +9518,7 @@
         <v>2012</v>
       </c>
       <c r="D497" t="n">
-        <v>10.83009079</v>
+        <v>0.448430493</v>
       </c>
       <c r="E497" t="s">
         <v>7</v>
@@ -9525,7 +9535,7 @@
         <v>2013</v>
       </c>
       <c r="D498" t="n">
-        <v>8.732612056</v>
+        <v>0.476190476</v>
       </c>
       <c r="E498" t="s">
         <v>7</v>
@@ -9542,10 +9552,10 @@
         <v>2014</v>
       </c>
       <c r="D499" t="n">
-        <v>8.901830283</v>
+        <v>0</v>
       </c>
       <c r="E499" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="500">
@@ -9559,7 +9569,7 @@
         <v>2015</v>
       </c>
       <c r="D500" t="n">
-        <v>16.49305556</v>
+        <v>0.46728972</v>
       </c>
       <c r="E500" t="s">
         <v>8</v>
@@ -9575,9 +9585,7 @@
       <c r="C501" t="n">
         <v>2016</v>
       </c>
-      <c r="D501" t="n">
-        <v>10.85043988</v>
-      </c>
+      <c r="D501"/>
       <c r="E501" t="s">
         <v>8</v>
       </c>
@@ -9592,9 +9600,7 @@
       <c r="C502" t="n">
         <v>2017</v>
       </c>
-      <c r="D502" t="n">
-        <v>10.12658228</v>
-      </c>
+      <c r="D502"/>
       <c r="E502" t="s">
         <v>8</v>
       </c>
@@ -9609,9 +9615,7 @@
       <c r="C503" t="n">
         <v>2018</v>
       </c>
-      <c r="D503" t="n">
-        <v>7.647843486</v>
-      </c>
+      <c r="D503"/>
       <c r="E503" t="s">
         <v>8</v>
       </c>
@@ -9626,9 +9630,7 @@
       <c r="C504" t="n">
         <v>2019</v>
       </c>
-      <c r="D504" t="n">
-        <v>7.307542009</v>
-      </c>
+      <c r="D504"/>
       <c r="E504" t="s">
         <v>8</v>
       </c>
@@ -9659,7 +9661,7 @@
         <v>2000</v>
       </c>
       <c r="D506" t="n">
-        <v>0.917431193</v>
+        <v>0</v>
       </c>
       <c r="E506" t="s">
         <v>7</v>
@@ -9676,7 +9678,7 @@
         <v>2001</v>
       </c>
       <c r="D507" t="n">
-        <v>1.376146789</v>
+        <v>0</v>
       </c>
       <c r="E507" t="s">
         <v>7</v>
@@ -9693,7 +9695,7 @@
         <v>2002</v>
       </c>
       <c r="D508" t="n">
-        <v>0.943396226</v>
+        <v>0</v>
       </c>
       <c r="E508" t="s">
         <v>7</v>
@@ -9710,7 +9712,7 @@
         <v>2003</v>
       </c>
       <c r="D509" t="n">
-        <v>0.961538462</v>
+        <v>0</v>
       </c>
       <c r="E509" t="s">
         <v>7</v>
@@ -9727,7 +9729,7 @@
         <v>2004</v>
       </c>
       <c r="D510" t="n">
-        <v>0.454545455</v>
+        <v>0</v>
       </c>
       <c r="E510" t="s">
         <v>7</v>
@@ -9744,7 +9746,7 @@
         <v>2005</v>
       </c>
       <c r="D511" t="n">
-        <v>0.840336134</v>
+        <v>0</v>
       </c>
       <c r="E511" t="s">
         <v>7</v>
@@ -9761,7 +9763,7 @@
         <v>2006</v>
       </c>
       <c r="D512" t="n">
-        <v>0.775193798</v>
+        <v>0</v>
       </c>
       <c r="E512" t="s">
         <v>7</v>
@@ -9778,7 +9780,7 @@
         <v>2007</v>
       </c>
       <c r="D513" t="n">
-        <v>0.740740741</v>
+        <v>0</v>
       </c>
       <c r="E513" t="s">
         <v>7</v>
@@ -9795,7 +9797,7 @@
         <v>2008</v>
       </c>
       <c r="D514" t="n">
-        <v>0.411522634</v>
+        <v>0</v>
       </c>
       <c r="E514" t="s">
         <v>7</v>
@@ -9812,7 +9814,7 @@
         <v>2009</v>
       </c>
       <c r="D515" t="n">
-        <v>0.523560209</v>
+        <v>0</v>
       </c>
       <c r="E515" t="s">
         <v>7</v>
@@ -9829,7 +9831,7 @@
         <v>2010</v>
       </c>
       <c r="D516" t="n">
-        <v>0.465116279</v>
+        <v>0</v>
       </c>
       <c r="E516" t="s">
         <v>7</v>
@@ -9846,7 +9848,7 @@
         <v>2011</v>
       </c>
       <c r="D517" t="n">
-        <v>0.438596491</v>
+        <v>0</v>
       </c>
       <c r="E517" t="s">
         <v>7</v>
@@ -9863,7 +9865,7 @@
         <v>2012</v>
       </c>
       <c r="D518" t="n">
-        <v>0.448430493</v>
+        <v>0</v>
       </c>
       <c r="E518" t="s">
         <v>7</v>
@@ -9880,7 +9882,7 @@
         <v>2013</v>
       </c>
       <c r="D519" t="n">
-        <v>0.476190476</v>
+        <v>0</v>
       </c>
       <c r="E519" t="s">
         <v>7</v>
@@ -9914,7 +9916,7 @@
         <v>2015</v>
       </c>
       <c r="D521" t="n">
-        <v>0.46728972</v>
+        <v>0</v>
       </c>
       <c r="E521" t="s">
         <v>8</v>
@@ -9930,7 +9932,9 @@
       <c r="C522" t="n">
         <v>2016</v>
       </c>
-      <c r="D522"/>
+      <c r="D522" t="n">
+        <v>0</v>
+      </c>
       <c r="E522" t="s">
         <v>8</v>
       </c>
@@ -9945,7 +9949,9 @@
       <c r="C523" t="n">
         <v>2017</v>
       </c>
-      <c r="D523"/>
+      <c r="D523" t="n">
+        <v>0</v>
+      </c>
       <c r="E523" t="s">
         <v>8</v>
       </c>
@@ -9960,7 +9966,9 @@
       <c r="C524" t="n">
         <v>2018</v>
       </c>
-      <c r="D524"/>
+      <c r="D524" t="n">
+        <v>0</v>
+      </c>
       <c r="E524" t="s">
         <v>8</v>
       </c>
@@ -9975,7 +9983,9 @@
       <c r="C525" t="n">
         <v>2019</v>
       </c>
-      <c r="D525"/>
+      <c r="D525" t="n">
+        <v>0</v>
+      </c>
       <c r="E525" t="s">
         <v>8</v>
       </c>
@@ -10006,7 +10016,7 @@
         <v>2000</v>
       </c>
       <c r="D527" t="n">
-        <v>0</v>
+        <v>29.17845204</v>
       </c>
       <c r="E527" t="s">
         <v>7</v>
@@ -10023,7 +10033,7 @@
         <v>2001</v>
       </c>
       <c r="D528" t="n">
-        <v>0</v>
+        <v>23.98021138</v>
       </c>
       <c r="E528" t="s">
         <v>7</v>
@@ -10040,7 +10050,7 @@
         <v>2002</v>
       </c>
       <c r="D529" t="n">
-        <v>0</v>
+        <v>20.08243901</v>
       </c>
       <c r="E529" t="s">
         <v>7</v>
@@ -10057,7 +10067,7 @@
         <v>2003</v>
       </c>
       <c r="D530" t="n">
-        <v>0</v>
+        <v>12.34989404</v>
       </c>
       <c r="E530" t="s">
         <v>7</v>
@@ -10074,7 +10084,7 @@
         <v>2004</v>
       </c>
       <c r="D531" t="n">
-        <v>0</v>
+        <v>15.09041386</v>
       </c>
       <c r="E531" t="s">
         <v>7</v>
@@ -10091,7 +10101,7 @@
         <v>2005</v>
       </c>
       <c r="D532" t="n">
-        <v>0</v>
+        <v>21.42646432</v>
       </c>
       <c r="E532" t="s">
         <v>7</v>
@@ -10108,7 +10118,7 @@
         <v>2006</v>
       </c>
       <c r="D533" t="n">
-        <v>0</v>
+        <v>27.01293425</v>
       </c>
       <c r="E533" t="s">
         <v>7</v>
@@ -10125,7 +10135,7 @@
         <v>2007</v>
       </c>
       <c r="D534" t="n">
-        <v>0</v>
+        <v>37.66386802</v>
       </c>
       <c r="E534" t="s">
         <v>7</v>
@@ -10142,7 +10152,7 @@
         <v>2008</v>
       </c>
       <c r="D535" t="n">
-        <v>0</v>
+        <v>44.40780828</v>
       </c>
       <c r="E535" t="s">
         <v>7</v>
@@ -10159,7 +10169,7 @@
         <v>2009</v>
       </c>
       <c r="D536" t="n">
-        <v>0</v>
+        <v>41.03537609</v>
       </c>
       <c r="E536" t="s">
         <v>7</v>
@@ -10176,7 +10186,7 @@
         <v>2010</v>
       </c>
       <c r="D537" t="n">
-        <v>0</v>
+        <v>50.95041533</v>
       </c>
       <c r="E537" t="s">
         <v>7</v>
@@ -10193,7 +10203,7 @@
         <v>2011</v>
       </c>
       <c r="D538" t="n">
-        <v>0</v>
+        <v>31.65380007</v>
       </c>
       <c r="E538" t="s">
         <v>7</v>
@@ -10210,7 +10220,7 @@
         <v>2012</v>
       </c>
       <c r="D539" t="n">
-        <v>0</v>
+        <v>33.08874807</v>
       </c>
       <c r="E539" t="s">
         <v>7</v>
@@ -10227,7 +10237,7 @@
         <v>2013</v>
       </c>
       <c r="D540" t="n">
-        <v>0</v>
+        <v>65.31499798</v>
       </c>
       <c r="E540" t="s">
         <v>7</v>
@@ -10244,7 +10254,7 @@
         <v>2014</v>
       </c>
       <c r="D541" t="n">
-        <v>0</v>
+        <v>37.76426894</v>
       </c>
       <c r="E541" t="s">
         <v>8</v>
@@ -10261,7 +10271,7 @@
         <v>2015</v>
       </c>
       <c r="D542" t="n">
-        <v>0</v>
+        <v>36.31129078</v>
       </c>
       <c r="E542" t="s">
         <v>8</v>
@@ -10278,7 +10288,7 @@
         <v>2016</v>
       </c>
       <c r="D543" t="n">
-        <v>0</v>
+        <v>36.01837546</v>
       </c>
       <c r="E543" t="s">
         <v>8</v>
@@ -10295,7 +10305,7 @@
         <v>2017</v>
       </c>
       <c r="D544" t="n">
-        <v>0</v>
+        <v>35.81008584</v>
       </c>
       <c r="E544" t="s">
         <v>8</v>
@@ -10312,7 +10322,7 @@
         <v>2018</v>
       </c>
       <c r="D545" t="n">
-        <v>0</v>
+        <v>35.62899031</v>
       </c>
       <c r="E545" t="s">
         <v>8</v>
@@ -10328,9 +10338,7 @@
       <c r="C546" t="n">
         <v>2019</v>
       </c>
-      <c r="D546" t="n">
-        <v>0</v>
-      </c>
+      <c r="D546"/>
       <c r="E546" t="s">
         <v>8</v>
       </c>
@@ -10361,7 +10369,7 @@
         <v>2000</v>
       </c>
       <c r="D548" t="n">
-        <v>29.17845204</v>
+        <v>1.115851657</v>
       </c>
       <c r="E548" t="s">
         <v>7</v>
@@ -10378,7 +10386,7 @@
         <v>2001</v>
       </c>
       <c r="D549" t="n">
-        <v>23.98021138</v>
+        <v>0.632911392</v>
       </c>
       <c r="E549" t="s">
         <v>7</v>
@@ -10395,7 +10403,7 @@
         <v>2002</v>
       </c>
       <c r="D550" t="n">
-        <v>20.08243901</v>
+        <v>0.695652174</v>
       </c>
       <c r="E550" t="s">
         <v>7</v>
@@ -10412,7 +10420,7 @@
         <v>2003</v>
       </c>
       <c r="D551" t="n">
-        <v>12.34989404</v>
+        <v>1.628664495</v>
       </c>
       <c r="E551" t="s">
         <v>7</v>
@@ -10429,7 +10437,7 @@
         <v>2004</v>
       </c>
       <c r="D552" t="n">
-        <v>15.09041386</v>
+        <v>1.072386059</v>
       </c>
       <c r="E552" t="s">
         <v>7</v>
@@ -10446,7 +10454,7 @@
         <v>2005</v>
       </c>
       <c r="D553" t="n">
-        <v>21.42646432</v>
+        <v>0.481540931</v>
       </c>
       <c r="E553" t="s">
         <v>7</v>
@@ -10463,7 +10471,7 @@
         <v>2006</v>
       </c>
       <c r="D554" t="n">
-        <v>27.01293425</v>
+        <v>0.278396437</v>
       </c>
       <c r="E554" t="s">
         <v>7</v>
@@ -10480,7 +10488,7 @@
         <v>2007</v>
       </c>
       <c r="D555" t="n">
-        <v>37.66386802</v>
+        <v>0.949968334</v>
       </c>
       <c r="E555" t="s">
         <v>7</v>
@@ -10497,7 +10505,7 @@
         <v>2008</v>
       </c>
       <c r="D556" t="n">
-        <v>44.40780828</v>
+        <v>1.401682018</v>
       </c>
       <c r="E556" t="s">
         <v>7</v>
@@ -10514,7 +10522,7 @@
         <v>2009</v>
       </c>
       <c r="D557" t="n">
-        <v>41.03537609</v>
+        <v>1.123595506</v>
       </c>
       <c r="E557" t="s">
         <v>7</v>
@@ -10531,7 +10539,7 @@
         <v>2010</v>
       </c>
       <c r="D558" t="n">
-        <v>50.95041533</v>
+        <v>0.179291797</v>
       </c>
       <c r="E558" t="s">
         <v>7</v>
@@ -10548,7 +10556,7 @@
         <v>2011</v>
       </c>
       <c r="D559" t="n">
-        <v>31.65380007</v>
+        <v>1.209398756</v>
       </c>
       <c r="E559" t="s">
         <v>7</v>
@@ -10565,7 +10573,7 @@
         <v>2012</v>
       </c>
       <c r="D560" t="n">
-        <v>33.08874807</v>
+        <v>0.336021505</v>
       </c>
       <c r="E560" t="s">
         <v>7</v>
@@ -10582,7 +10590,7 @@
         <v>2013</v>
       </c>
       <c r="D561" t="n">
-        <v>65.31499798</v>
+        <v>0.832532821</v>
       </c>
       <c r="E561" t="s">
         <v>7</v>
@@ -10599,7 +10607,7 @@
         <v>2014</v>
       </c>
       <c r="D562" t="n">
-        <v>37.76426894</v>
+        <v>1.190103351</v>
       </c>
       <c r="E562" t="s">
         <v>8</v>
@@ -10616,7 +10624,7 @@
         <v>2015</v>
       </c>
       <c r="D563" t="n">
-        <v>36.31129078</v>
+        <v>0.710534445</v>
       </c>
       <c r="E563" t="s">
         <v>8</v>
@@ -10633,7 +10641,7 @@
         <v>2016</v>
       </c>
       <c r="D564" t="n">
-        <v>36.01837546</v>
+        <v>0.779844031</v>
       </c>
       <c r="E564" t="s">
         <v>8</v>
@@ -10650,7 +10658,7 @@
         <v>2017</v>
       </c>
       <c r="D565" t="n">
-        <v>35.81008584</v>
+        <v>0.714489854</v>
       </c>
       <c r="E565" t="s">
         <v>8</v>
@@ -10667,7 +10675,7 @@
         <v>2018</v>
       </c>
       <c r="D566" t="n">
-        <v>35.62899031</v>
+        <v>0.816326531</v>
       </c>
       <c r="E566" t="s">
         <v>8</v>
@@ -10683,7 +10691,9 @@
       <c r="C567" t="n">
         <v>2019</v>
       </c>
-      <c r="D567"/>
+      <c r="D567" t="n">
+        <v>0.864464341</v>
+      </c>
       <c r="E567" t="s">
         <v>8</v>
       </c>
@@ -10713,9 +10723,7 @@
       <c r="C569" t="n">
         <v>2000</v>
       </c>
-      <c r="D569" t="n">
-        <v>1.115851657</v>
-      </c>
+      <c r="D569"/>
       <c r="E569" t="s">
         <v>7</v>
       </c>
@@ -10730,9 +10738,7 @@
       <c r="C570" t="n">
         <v>2001</v>
       </c>
-      <c r="D570" t="n">
-        <v>0.632911392</v>
-      </c>
+      <c r="D570"/>
       <c r="E570" t="s">
         <v>7</v>
       </c>
@@ -10747,9 +10753,7 @@
       <c r="C571" t="n">
         <v>2002</v>
       </c>
-      <c r="D571" t="n">
-        <v>0.695652174</v>
-      </c>
+      <c r="D571"/>
       <c r="E571" t="s">
         <v>7</v>
       </c>
@@ -10764,9 +10768,7 @@
       <c r="C572" t="n">
         <v>2003</v>
       </c>
-      <c r="D572" t="n">
-        <v>1.628664495</v>
-      </c>
+      <c r="D572"/>
       <c r="E572" t="s">
         <v>7</v>
       </c>
@@ -10781,9 +10783,7 @@
       <c r="C573" t="n">
         <v>2004</v>
       </c>
-      <c r="D573" t="n">
-        <v>1.072386059</v>
-      </c>
+      <c r="D573"/>
       <c r="E573" t="s">
         <v>7</v>
       </c>
@@ -10798,9 +10798,7 @@
       <c r="C574" t="n">
         <v>2005</v>
       </c>
-      <c r="D574" t="n">
-        <v>0.481540931</v>
-      </c>
+      <c r="D574"/>
       <c r="E574" t="s">
         <v>7</v>
       </c>
@@ -10816,7 +10814,7 @@
         <v>2006</v>
       </c>
       <c r="D575" t="n">
-        <v>0.278396437</v>
+        <v>0</v>
       </c>
       <c r="E575" t="s">
         <v>7</v>
@@ -10833,7 +10831,7 @@
         <v>2007</v>
       </c>
       <c r="D576" t="n">
-        <v>0.949968334</v>
+        <v>0</v>
       </c>
       <c r="E576" t="s">
         <v>7</v>
@@ -10850,7 +10848,7 @@
         <v>2008</v>
       </c>
       <c r="D577" t="n">
-        <v>1.401682018</v>
+        <v>0</v>
       </c>
       <c r="E577" t="s">
         <v>7</v>
@@ -10867,7 +10865,7 @@
         <v>2009</v>
       </c>
       <c r="D578" t="n">
-        <v>1.123595506</v>
+        <v>0</v>
       </c>
       <c r="E578" t="s">
         <v>7</v>
@@ -10884,7 +10882,7 @@
         <v>2010</v>
       </c>
       <c r="D579" t="n">
-        <v>0.179291797</v>
+        <v>0</v>
       </c>
       <c r="E579" t="s">
         <v>7</v>
@@ -10901,7 +10899,7 @@
         <v>2011</v>
       </c>
       <c r="D580" t="n">
-        <v>1.209398756</v>
+        <v>0</v>
       </c>
       <c r="E580" t="s">
         <v>7</v>
@@ -10918,7 +10916,7 @@
         <v>2012</v>
       </c>
       <c r="D581" t="n">
-        <v>0.336021505</v>
+        <v>0</v>
       </c>
       <c r="E581" t="s">
         <v>7</v>
@@ -10935,7 +10933,7 @@
         <v>2013</v>
       </c>
       <c r="D582" t="n">
-        <v>0.832532821</v>
+        <v>0</v>
       </c>
       <c r="E582" t="s">
         <v>7</v>
@@ -10952,7 +10950,7 @@
         <v>2014</v>
       </c>
       <c r="D583" t="n">
-        <v>1.190103351</v>
+        <v>0</v>
       </c>
       <c r="E583" t="s">
         <v>8</v>
@@ -10969,7 +10967,7 @@
         <v>2015</v>
       </c>
       <c r="D584" t="n">
-        <v>0.710534445</v>
+        <v>0</v>
       </c>
       <c r="E584" t="s">
         <v>8</v>
@@ -10986,7 +10984,7 @@
         <v>2016</v>
       </c>
       <c r="D585" t="n">
-        <v>0.779844031</v>
+        <v>0</v>
       </c>
       <c r="E585" t="s">
         <v>8</v>
@@ -11003,7 +11001,7 @@
         <v>2017</v>
       </c>
       <c r="D586" t="n">
-        <v>0.714489854</v>
+        <v>0</v>
       </c>
       <c r="E586" t="s">
         <v>8</v>
@@ -11020,7 +11018,7 @@
         <v>2018</v>
       </c>
       <c r="D587" t="n">
-        <v>0.816326531</v>
+        <v>0</v>
       </c>
       <c r="E587" t="s">
         <v>8</v>
@@ -11037,7 +11035,7 @@
         <v>2019</v>
       </c>
       <c r="D588" t="n">
-        <v>0.864464341</v>
+        <v>0</v>
       </c>
       <c r="E588" t="s">
         <v>8</v>
@@ -11128,7 +11126,9 @@
       <c r="C594" t="n">
         <v>2004</v>
       </c>
-      <c r="D594"/>
+      <c r="D594" t="n">
+        <v>5.034825871</v>
+      </c>
       <c r="E594" t="s">
         <v>7</v>
       </c>
@@ -11143,7 +11143,9 @@
       <c r="C595" t="n">
         <v>2005</v>
       </c>
-      <c r="D595"/>
+      <c r="D595" t="n">
+        <v>6.040868455</v>
+      </c>
       <c r="E595" t="s">
         <v>7</v>
       </c>
@@ -11159,7 +11161,7 @@
         <v>2006</v>
       </c>
       <c r="D596" t="n">
-        <v>0</v>
+        <v>3.212735166</v>
       </c>
       <c r="E596" t="s">
         <v>7</v>
@@ -11176,7 +11178,7 @@
         <v>2007</v>
       </c>
       <c r="D597" t="n">
-        <v>0</v>
+        <v>2.864471997</v>
       </c>
       <c r="E597" t="s">
         <v>7</v>
@@ -11193,7 +11195,7 @@
         <v>2008</v>
       </c>
       <c r="D598" t="n">
-        <v>0</v>
+        <v>8.324830721</v>
       </c>
       <c r="E598" t="s">
         <v>7</v>
@@ -11210,7 +11212,7 @@
         <v>2009</v>
       </c>
       <c r="D599" t="n">
-        <v>0</v>
+        <v>2.975292343</v>
       </c>
       <c r="E599" t="s">
         <v>7</v>
@@ -11227,7 +11229,7 @@
         <v>2010</v>
       </c>
       <c r="D600" t="n">
-        <v>0</v>
+        <v>2.700527587</v>
       </c>
       <c r="E600" t="s">
         <v>7</v>
@@ -11244,7 +11246,7 @@
         <v>2011</v>
       </c>
       <c r="D601" t="n">
-        <v>0</v>
+        <v>1.906251811</v>
       </c>
       <c r="E601" t="s">
         <v>7</v>
@@ -11261,7 +11263,7 @@
         <v>2012</v>
       </c>
       <c r="D602" t="n">
-        <v>0</v>
+        <v>3.097581445</v>
       </c>
       <c r="E602" t="s">
         <v>7</v>
@@ -11278,7 +11280,7 @@
         <v>2013</v>
       </c>
       <c r="D603" t="n">
-        <v>0</v>
+        <v>6.629379832</v>
       </c>
       <c r="E603" t="s">
         <v>7</v>
@@ -11295,7 +11297,7 @@
         <v>2014</v>
       </c>
       <c r="D604" t="n">
-        <v>0</v>
+        <v>9.230582377</v>
       </c>
       <c r="E604" t="s">
         <v>8</v>
@@ -11312,7 +11314,7 @@
         <v>2015</v>
       </c>
       <c r="D605" t="n">
-        <v>0</v>
+        <v>9.768891197</v>
       </c>
       <c r="E605" t="s">
         <v>8</v>
@@ -11329,7 +11331,7 @@
         <v>2016</v>
       </c>
       <c r="D606" t="n">
-        <v>0</v>
+        <v>9.836837151</v>
       </c>
       <c r="E606" t="s">
         <v>8</v>
@@ -11346,7 +11348,7 @@
         <v>2017</v>
       </c>
       <c r="D607" t="n">
-        <v>0</v>
+        <v>9.128591167</v>
       </c>
       <c r="E607" t="s">
         <v>8</v>
@@ -11363,7 +11365,7 @@
         <v>2018</v>
       </c>
       <c r="D608" t="n">
-        <v>0</v>
+        <v>8.742288429</v>
       </c>
       <c r="E608" t="s">
         <v>8</v>
@@ -11379,9 +11381,7 @@
       <c r="C609" t="n">
         <v>2019</v>
       </c>
-      <c r="D609" t="n">
-        <v>0</v>
-      </c>
+      <c r="D609"/>
       <c r="E609" t="s">
         <v>8</v>
       </c>
@@ -47231,51 +47231,39 @@
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
-      <c r="G20" t="n">
-        <v>5.034825871</v>
-      </c>
-      <c r="H20" t="n">
-        <v>6.040868455</v>
-      </c>
+      <c r="G20"/>
+      <c r="H20"/>
       <c r="I20" t="n">
-        <v>3.212735166</v>
+        <v>18.15362595</v>
       </c>
       <c r="J20" t="n">
-        <v>2.864471997</v>
+        <v>15.50010144</v>
       </c>
       <c r="K20" t="n">
-        <v>8.324830721</v>
+        <v>20.45719278</v>
       </c>
       <c r="L20" t="n">
-        <v>2.975292343</v>
+        <v>26.86939915</v>
       </c>
       <c r="M20" t="n">
-        <v>2.700527587</v>
+        <v>28.97918484</v>
       </c>
       <c r="N20" t="n">
-        <v>1.906251811</v>
+        <v>20.68030564</v>
       </c>
       <c r="O20" t="n">
-        <v>3.097581445</v>
+        <v>16.39378454</v>
       </c>
       <c r="P20" t="n">
-        <v>6.629379832</v>
+        <v>18.52336449</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.230582377</v>
-      </c>
-      <c r="R20" t="n">
-        <v>9.768891197</v>
-      </c>
-      <c r="S20" t="n">
-        <v>9.836837151</v>
-      </c>
-      <c r="T20" t="n">
-        <v>9.128591167</v>
-      </c>
-      <c r="U20" t="n">
-        <v>8.742288429</v>
-      </c>
+        <v>16.58795261</v>
+      </c>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
       <c r="V20"/>
       <c r="W20"/>
     </row>
@@ -47288,42 +47276,60 @@
       </c>
       <c r="C21"/>
       <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
+      <c r="E21" t="n">
+        <v>1.777777778</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3.85126162</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.477449456</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.955974843</v>
+      </c>
       <c r="I21" t="n">
-        <v>18.15362595</v>
+        <v>59.5706619</v>
       </c>
       <c r="J21" t="n">
-        <v>15.50010144</v>
+        <v>5.944584383</v>
       </c>
       <c r="K21" t="n">
-        <v>20.45719278</v>
+        <v>4.155374887</v>
       </c>
       <c r="L21" t="n">
-        <v>26.86939915</v>
+        <v>4.519480519</v>
       </c>
       <c r="M21" t="n">
-        <v>28.97918484</v>
+        <v>3.659793814</v>
       </c>
       <c r="N21" t="n">
-        <v>20.68030564</v>
+        <v>2.666666667</v>
       </c>
       <c r="O21" t="n">
-        <v>16.39378454</v>
+        <v>2.308326463</v>
       </c>
       <c r="P21" t="n">
-        <v>18.52336449</v>
+        <v>1.753717118</v>
       </c>
       <c r="Q21" t="n">
-        <v>16.58795261</v>
-      </c>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
-      <c r="U21"/>
-      <c r="V21"/>
+        <v>2.909594735</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.754098361</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.658841941</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.44075272</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.211120286</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.021189686</v>
+      </c>
       <c r="W21"/>
     </row>
     <row r="22">
@@ -47334,61 +47340,59 @@
         <v>48</v>
       </c>
       <c r="C22"/>
-      <c r="D22"/>
+      <c r="D22" t="n">
+        <v>21.69312169</v>
+      </c>
       <c r="E22" t="n">
-        <v>1.777777778</v>
+        <v>27.39130435</v>
       </c>
       <c r="F22" t="n">
-        <v>3.85126162</v>
+        <v>20.0913242</v>
       </c>
       <c r="G22" t="n">
-        <v>1.477449456</v>
+        <v>31.78571429</v>
       </c>
       <c r="H22" t="n">
-        <v>2.955974843</v>
+        <v>21.12476194</v>
       </c>
       <c r="I22" t="n">
-        <v>59.5706619</v>
+        <v>18.64772581</v>
       </c>
       <c r="J22" t="n">
-        <v>5.944584383</v>
+        <v>15.86063591</v>
       </c>
       <c r="K22" t="n">
-        <v>4.155374887</v>
+        <v>16.40850282</v>
       </c>
       <c r="L22" t="n">
-        <v>4.519480519</v>
+        <v>18.74657909</v>
       </c>
       <c r="M22" t="n">
-        <v>3.659793814</v>
+        <v>22.3853211</v>
       </c>
       <c r="N22" t="n">
-        <v>2.666666667</v>
+        <v>11.45162992</v>
       </c>
       <c r="O22" t="n">
-        <v>2.308326463</v>
+        <v>7.897289586</v>
       </c>
       <c r="P22" t="n">
-        <v>1.753717118</v>
+        <v>9.951957916</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.909594735</v>
+        <v>11.53610193</v>
       </c>
       <c r="R22" t="n">
-        <v>2.754098361</v>
+        <v>7.257731011</v>
       </c>
       <c r="S22" t="n">
-        <v>1.658841941</v>
+        <v>6.250529886</v>
       </c>
       <c r="T22" t="n">
-        <v>1.44075272</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.211120286</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.021189686</v>
-      </c>
+        <v>5.064708077</v>
+      </c>
+      <c r="U22"/>
+      <c r="V22"/>
       <c r="W22"/>
     </row>
     <row r="23">
@@ -47400,56 +47404,52 @@
       </c>
       <c r="C23"/>
       <c r="D23" t="n">
-        <v>21.69312169</v>
+        <v>27.77142857</v>
       </c>
       <c r="E23" t="n">
-        <v>27.39130435</v>
+        <v>25.96789424</v>
       </c>
       <c r="F23" t="n">
-        <v>20.0913242</v>
+        <v>15.830721</v>
       </c>
       <c r="G23" t="n">
-        <v>31.78571429</v>
+        <v>28.91719745</v>
       </c>
       <c r="H23" t="n">
-        <v>21.12476194</v>
+        <v>33.52272727</v>
       </c>
       <c r="I23" t="n">
-        <v>18.64772581</v>
+        <v>58.36642087</v>
       </c>
       <c r="J23" t="n">
-        <v>15.86063591</v>
+        <v>28.54700855</v>
       </c>
       <c r="K23" t="n">
-        <v>16.40850282</v>
+        <v>31.40311804</v>
       </c>
       <c r="L23" t="n">
-        <v>18.74657909</v>
+        <v>32.86759814</v>
       </c>
       <c r="M23" t="n">
-        <v>22.3853211</v>
+        <v>32.30586841</v>
       </c>
       <c r="N23" t="n">
-        <v>11.45162992</v>
+        <v>19.04417089</v>
       </c>
       <c r="O23" t="n">
-        <v>7.897289586</v>
+        <v>29.78488693</v>
       </c>
       <c r="P23" t="n">
-        <v>9.951957916</v>
+        <v>32.44514107</v>
       </c>
       <c r="Q23" t="n">
-        <v>11.53610193</v>
+        <v>31.07569721</v>
       </c>
       <c r="R23" t="n">
-        <v>7.257731011</v>
-      </c>
-      <c r="S23" t="n">
-        <v>6.250529886</v>
-      </c>
-      <c r="T23" t="n">
-        <v>5.064708077</v>
-      </c>
+        <v>28.86505809</v>
+      </c>
+      <c r="S23"/>
+      <c r="T23"/>
       <c r="U23"/>
       <c r="V23"/>
       <c r="W23"/>
@@ -47461,56 +47461,66 @@
       <c r="B24" t="s">
         <v>52</v>
       </c>
-      <c r="C24"/>
+      <c r="C24" t="n">
+        <v>40.76809453</v>
+      </c>
       <c r="D24" t="n">
-        <v>27.77142857</v>
+        <v>41.02893891</v>
       </c>
       <c r="E24" t="n">
-        <v>25.96789424</v>
+        <v>43.03091738</v>
       </c>
       <c r="F24" t="n">
-        <v>15.830721</v>
+        <v>49.61585119</v>
       </c>
       <c r="G24" t="n">
-        <v>28.91719745</v>
+        <v>25.95362752</v>
       </c>
       <c r="H24" t="n">
-        <v>33.52272727</v>
+        <v>26.45341457</v>
       </c>
       <c r="I24" t="n">
-        <v>58.36642087</v>
+        <v>10.08701257</v>
       </c>
       <c r="J24" t="n">
-        <v>28.54700855</v>
+        <v>6.066560236</v>
       </c>
       <c r="K24" t="n">
-        <v>31.40311804</v>
+        <v>5.410071942</v>
       </c>
       <c r="L24" t="n">
-        <v>32.86759814</v>
+        <v>17.55725191</v>
       </c>
       <c r="M24" t="n">
-        <v>32.30586841</v>
+        <v>6.454630496</v>
       </c>
       <c r="N24" t="n">
-        <v>19.04417089</v>
+        <v>6.399437412</v>
       </c>
       <c r="O24" t="n">
-        <v>29.78488693</v>
+        <v>10.83009079</v>
       </c>
       <c r="P24" t="n">
-        <v>32.44514107</v>
+        <v>8.732612056</v>
       </c>
       <c r="Q24" t="n">
-        <v>31.07569721</v>
+        <v>8.901830283</v>
       </c>
       <c r="R24" t="n">
-        <v>28.86505809</v>
-      </c>
-      <c r="S24"/>
-      <c r="T24"/>
-      <c r="U24"/>
-      <c r="V24"/>
+        <v>16.49305556</v>
+      </c>
+      <c r="S24" t="n">
+        <v>10.85043988</v>
+      </c>
+      <c r="T24" t="n">
+        <v>10.12658228</v>
+      </c>
+      <c r="U24" t="n">
+        <v>7.647843486</v>
+      </c>
+      <c r="V24" t="n">
+        <v>7.307542009</v>
+      </c>
       <c r="W24"/>
     </row>
     <row r="25">
@@ -47521,65 +47531,57 @@
         <v>54</v>
       </c>
       <c r="C25" t="n">
-        <v>40.76809453</v>
+        <v>0.917431193</v>
       </c>
       <c r="D25" t="n">
-        <v>41.02893891</v>
+        <v>1.376146789</v>
       </c>
       <c r="E25" t="n">
-        <v>43.03091738</v>
+        <v>0.943396226</v>
       </c>
       <c r="F25" t="n">
-        <v>49.61585119</v>
+        <v>0.961538462</v>
       </c>
       <c r="G25" t="n">
-        <v>25.95362752</v>
+        <v>0.454545455</v>
       </c>
       <c r="H25" t="n">
-        <v>26.45341457</v>
+        <v>0.840336134</v>
       </c>
       <c r="I25" t="n">
-        <v>10.08701257</v>
+        <v>0.775193798</v>
       </c>
       <c r="J25" t="n">
-        <v>6.066560236</v>
+        <v>0.740740741</v>
       </c>
       <c r="K25" t="n">
-        <v>5.410071942</v>
+        <v>0.411522634</v>
       </c>
       <c r="L25" t="n">
-        <v>17.55725191</v>
+        <v>0.523560209</v>
       </c>
       <c r="M25" t="n">
-        <v>6.454630496</v>
+        <v>0.465116279</v>
       </c>
       <c r="N25" t="n">
-        <v>6.399437412</v>
+        <v>0.438596491</v>
       </c>
       <c r="O25" t="n">
-        <v>10.83009079</v>
+        <v>0.448430493</v>
       </c>
       <c r="P25" t="n">
-        <v>8.732612056</v>
+        <v>0.476190476</v>
       </c>
       <c r="Q25" t="n">
-        <v>8.901830283</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>16.49305556</v>
-      </c>
-      <c r="S25" t="n">
-        <v>10.85043988</v>
-      </c>
-      <c r="T25" t="n">
-        <v>10.12658228</v>
-      </c>
-      <c r="U25" t="n">
-        <v>7.647843486</v>
-      </c>
-      <c r="V25" t="n">
-        <v>7.307542009</v>
-      </c>
+        <v>0.46728972</v>
+      </c>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
       <c r="W25"/>
     </row>
     <row r="26">
@@ -47590,57 +47592,65 @@
         <v>56</v>
       </c>
       <c r="C26" t="n">
-        <v>0.917431193</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1.376146789</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.943396226</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.961538462</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.454545455</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.840336134</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.775193798</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.740740741</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.411522634</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0.523560209</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.465116279</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0.438596491</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0.448430493</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0.476190476</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0.46728972</v>
-      </c>
-      <c r="S26"/>
-      <c r="T26"/>
-      <c r="U26"/>
-      <c r="V26"/>
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
       <c r="W26"/>
     </row>
     <row r="27">
@@ -47651,65 +47661,63 @@
         <v>58</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>29.17845204</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>23.98021138</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>20.08243901</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>12.34989404</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>15.09041386</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>21.42646432</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>27.01293425</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>37.66386802</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>44.40780828</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>41.03537609</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>50.95041533</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>31.65380007</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>33.08874807</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>65.31499798</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>37.76426894</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>36.31129078</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>36.01837546</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>35.81008584</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
+        <v>35.62899031</v>
+      </c>
+      <c r="V27"/>
       <c r="W27"/>
     </row>
     <row r="28">
@@ -47720,63 +47728,65 @@
         <v>60</v>
       </c>
       <c r="C28" t="n">
-        <v>29.17845204</v>
+        <v>1.115851657</v>
       </c>
       <c r="D28" t="n">
-        <v>23.98021138</v>
+        <v>0.632911392</v>
       </c>
       <c r="E28" t="n">
-        <v>20.08243901</v>
+        <v>0.695652174</v>
       </c>
       <c r="F28" t="n">
-        <v>12.34989404</v>
+        <v>1.628664495</v>
       </c>
       <c r="G28" t="n">
-        <v>15.09041386</v>
+        <v>1.072386059</v>
       </c>
       <c r="H28" t="n">
-        <v>21.42646432</v>
+        <v>0.481540931</v>
       </c>
       <c r="I28" t="n">
-        <v>27.01293425</v>
+        <v>0.278396437</v>
       </c>
       <c r="J28" t="n">
-        <v>37.66386802</v>
+        <v>0.949968334</v>
       </c>
       <c r="K28" t="n">
-        <v>44.40780828</v>
+        <v>1.401682018</v>
       </c>
       <c r="L28" t="n">
-        <v>41.03537609</v>
+        <v>1.123595506</v>
       </c>
       <c r="M28" t="n">
-        <v>50.95041533</v>
+        <v>0.179291797</v>
       </c>
       <c r="N28" t="n">
-        <v>31.65380007</v>
+        <v>1.209398756</v>
       </c>
       <c r="O28" t="n">
-        <v>33.08874807</v>
+        <v>0.336021505</v>
       </c>
       <c r="P28" t="n">
-        <v>65.31499798</v>
+        <v>0.832532821</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.76426894</v>
+        <v>1.190103351</v>
       </c>
       <c r="R28" t="n">
-        <v>36.31129078</v>
+        <v>0.710534445</v>
       </c>
       <c r="S28" t="n">
-        <v>36.01837546</v>
+        <v>0.779844031</v>
       </c>
       <c r="T28" t="n">
-        <v>35.81008584</v>
+        <v>0.714489854</v>
       </c>
       <c r="U28" t="n">
-        <v>35.62899031</v>
-      </c>
-      <c r="V28"/>
+        <v>0.816326531</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.864464341</v>
+      </c>
       <c r="W28"/>
     </row>
     <row r="29">
@@ -47786,65 +47796,53 @@
       <c r="B29" t="s">
         <v>62</v>
       </c>
-      <c r="C29" t="n">
-        <v>1.115851657</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.632911392</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.695652174</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1.628664495</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1.072386059</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.481540931</v>
-      </c>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
       <c r="I29" t="n">
-        <v>0.278396437</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.949968334</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1.401682018</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1.123595506</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.179291797</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1.209398756</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0.336021505</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0.832532821</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.190103351</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0.710534445</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0.779844031</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0.714489854</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0.816326531</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0.864464341</v>
+        <v>0</v>
       </c>
       <c r="W29"/>
     </row>
@@ -47859,50 +47857,52 @@
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
+      <c r="G30" t="n">
+        <v>5.034825871</v>
+      </c>
+      <c r="H30" t="n">
+        <v>6.040868455</v>
+      </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>3.212735166</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>2.864471997</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>8.324830721</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>2.975292343</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>2.700527587</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1.906251811</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>3.097581445</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>6.629379832</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>9.230582377</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>9.768891197</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>9.836837151</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>9.128591167</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
+        <v>8.742288429</v>
+      </c>
+      <c r="V30"/>
       <c r="W30"/>
     </row>
     <row r="31">
